--- a/biology/Mycologie/Anthurus_archeri/Anthurus_archeri.xlsx
+++ b/biology/Mycologie/Anthurus_archeri/Anthurus_archeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clathrus archeri
 L'Anthurus d'Archer, Clathrus archeri (anciennement Anthurus archeri), est une espèce de champignons basidiomycètes de l'ordre des Phallales et de la famille des phallacées. Originaire d'Australasie, cette espèce est considérée comme invasive en Europe et en Amériques.
@@ -512,9 +524,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce fongique porte plusieurs noms vernaculaires : « Doigts du diable », « Pieuvre des bois » et « Champignon-pieuvre », traduction littérale de l'allemand « Tintenfischpilz »[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce fongique porte plusieurs noms vernaculaires : « Doigts du diable », « Pieuvre des bois » et « Champignon-pieuvre », traduction littérale de l'allemand « Tintenfischpilz ».
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'origine australienne ou néo-zélandaise, l'Anthurus d'Archer aurait été introduit en France dans la région bordelaise puis près des filatures de Raon-l'Étape dans les Vosges avec des laines débarquées de l'hémisphère sud. À moins qu'il ne soit apparu dans la région de Saint-Dié pendant la Première Guerre mondiale par l'intermédiaire des chevaux des soldats australiens et de leur fourrage, ou plus simplement transporté par les bottes des soldats. Ce champignon se serait ensuite répandu en Lorraine puis au Grand-Duché de Luxembourg[4]. En Belgique, il est signalé pour la première fois octobre 1968 en forêt de Soignes sur un talus au pied de hêtres non loin de l’étang des Enfants Noyés, à Boitsfort[5].
-Son extension se serait faite à travers toute l'Europe à partir de ces deux pôles, bordelais et vosgien. Étant donné l'étendue de l'aire qu'il a colonisé en quelques décennies, il est considéré comme une espèce envahissante[5]
-Il a aussi été signalé en Amérique du Nord au début des années 1980[6].  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'origine australienne ou néo-zélandaise, l'Anthurus d'Archer aurait été introduit en France dans la région bordelaise puis près des filatures de Raon-l'Étape dans les Vosges avec des laines débarquées de l'hémisphère sud. À moins qu'il ne soit apparu dans la région de Saint-Dié pendant la Première Guerre mondiale par l'intermédiaire des chevaux des soldats australiens et de leur fourrage, ou plus simplement transporté par les bottes des soldats. Ce champignon se serait ensuite répandu en Lorraine puis au Grand-Duché de Luxembourg. En Belgique, il est signalé pour la première fois octobre 1968 en forêt de Soignes sur un talus au pied de hêtres non loin de l’étang des Enfants Noyés, à Boitsfort.
+Son extension se serait faite à travers toute l'Europe à partir de ces deux pôles, bordelais et vosgien. Étant donné l'étendue de l'aire qu'il a colonisé en quelques décennies, il est considéré comme une espèce envahissante
+Il a aussi été signalé en Amérique du Nord au début des années 1980.  
 Région de l est Jura  ce jour[incompréhensible].
 </t>
         </is>
@@ -577,10 +593,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout d'abord enfermé dans un œuf blanchâtre, le sporophore se déploie en 4 à 8 bras de couleur rouge, couverts de restes de gléba, et ressemble alors à un poulpe.
-Il dégage une odeur nauséabonde[7] d'excréments ou de charogne[8]. Comme la plupart des champignons de l'ordre des phallales, et les fleurs cadavres, cette odeur putride lui permet d'attirer les insectes nécrophages qui dispersent ses spores principalement par zoochorie[9]. Cette caractéristique fait qu'il est classifié comme étant non-comestible. Il n'a cependant aucune toxicité et, à l'état d'œuf, il est très largement moins odorant.
+Il dégage une odeur nauséabonde d'excréments ou de charogne. Comme la plupart des champignons de l'ordre des phallales, et les fleurs cadavres, cette odeur putride lui permet d'attirer les insectes nécrophages qui dispersent ses spores principalement par zoochorie. Cette caractéristique fait qu'il est classifié comme étant non-comestible. Il n'a cependant aucune toxicité et, à l'état d'œuf, il est très largement moins odorant.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve ce champignon l'été et l'automne dans les bois clairs de feuillus, plus rarement dans des forêts de conifères, et parfois dans les prairies humides.
 </t>
